--- a/DATA_goal/Junction_Flooding_408.xlsx
+++ b/DATA_goal/Junction_Flooding_408.xlsx
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.79</v>
+        <v>27.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.4</v>
+        <v>123.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.61</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.83</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_408.xlsx
+++ b/DATA_goal/Junction_Flooding_408.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45089.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45089.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.24</v>
+        <v>5.548</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.7</v>
+        <v>3.897</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.395</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.51</v>
+        <v>12.453</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.91</v>
+        <v>9.066000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.28</v>
+        <v>4.244</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.42</v>
+        <v>18.529</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.4</v>
+        <v>6.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.88</v>
+        <v>2.887</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.92</v>
+        <v>3.758</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>4.958</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.86</v>
+        <v>5.466</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.232</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.03</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.1</v>
+        <v>6.147</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.13</v>
+        <v>4.275</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.246</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.454</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.72</v>
+        <v>61.359</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.49</v>
+        <v>12.739</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.87</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.67</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.38</v>
+        <v>4.214</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.39</v>
+        <v>9.554</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.52</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.23</v>
+        <v>3.504</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.57</v>
+        <v>4.051</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.13</v>
+        <v>5.233</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.52</v>
+        <v>17.255</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.22</v>
+        <v>2.097</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.89</v>
+        <v>5.207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45089.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.92</v>
+        <v>16.651</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>12.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.312</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.56</v>
+        <v>36.543</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.62</v>
+        <v>29.377</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.27</v>
+        <v>13.028</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.93</v>
+        <v>47.932</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.66</v>
+        <v>20.331</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.42</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>13.015</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>14.647</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>15.662</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.76</v>
+        <v>4.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.96</v>
+        <v>18.569</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.84</v>
+        <v>11.286</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.658</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>123.97</v>
+        <v>192.952</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.61</v>
+        <v>36.704</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.1</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.46</v>
+        <v>24.449</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>12.873</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.978</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.5</v>
+        <v>24.098</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.04</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.12</v>
+        <v>9.606</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.3</v>
+        <v>11.265</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.11</v>
+        <v>15.406</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.59</v>
+        <v>43.452</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.73</v>
+        <v>6.732</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45089.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.1</v>
+        <v>21.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.34</v>
+        <v>16.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.25</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.32</v>
+        <v>48.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.78</v>
+        <v>39.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.35</v>
+        <v>17.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.96</v>
+        <v>66.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.92</v>
+        <v>26.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.26</v>
+        <v>11.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.85</v>
+        <v>17.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>19.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.48</v>
+        <v>20.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.8</v>
+        <v>5.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.75</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.81</v>
+        <v>24.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.41</v>
+        <v>14.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.56</v>
+        <v>48.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.31</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.91</v>
+        <v>32.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.84</v>
+        <v>17.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.33</v>
+        <v>32.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>14.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4</v>
+        <v>12.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.77</v>
+        <v>14.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.6</v>
+        <v>20.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.45</v>
+        <v>60.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.11</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.22</v>
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_408.xlsx
+++ b/DATA_goal/Junction_Flooding_408.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,34 +448,34 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45089.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45089.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.548</v>
+        <v>2.239</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.897</v>
+        <v>1.696</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.395</v>
+        <v>0.118</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.453</v>
+        <v>4.508</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.066000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.244</v>
+        <v>1.281</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.529</v>
+        <v>4.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.95</v>
+        <v>3.398</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.887</v>
+        <v>1.877</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.758</v>
+        <v>1.918</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.958</v>
+        <v>2.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.466</v>
+        <v>1.855</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.232</v>
+        <v>0.554</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.512</v>
+        <v>2.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.147</v>
+        <v>2.099</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.275</v>
+        <v>1.135</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.246</v>
+        <v>1.165</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.454</v>
+        <v>0.191</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.359</v>
+        <v>20.723</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.739</v>
+        <v>4.492</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.164</v>
+        <v>1.866</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.034000000000001</v>
+        <v>3.671</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.214</v>
+        <v>2.377</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.001</v>
+        <v>0.251</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.554</v>
+        <v>2.388</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.678</v>
+        <v>1.515</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.504</v>
+        <v>1.225</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.051</v>
+        <v>1.566</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.233</v>
+        <v>2.134</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.255</v>
+        <v>4.523</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.097</v>
+        <v>1.223</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.207</v>
+        <v>1.891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45089.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.651</v>
+        <v>10.925</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.36</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.312</v>
+        <v>0.389</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.543</v>
+        <v>23.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.377</v>
+        <v>19.623</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.028</v>
+        <v>8.272</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.932</v>
+        <v>27.931</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.331</v>
+        <v>13.662</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.994999999999999</v>
+        <v>6.416</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.015</v>
+        <v>8.968</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.647</v>
+        <v>9.641999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.662</v>
+        <v>9.971</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.06</v>
+        <v>2.756</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.159</v>
+        <v>8.776</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.569</v>
+        <v>11.964</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.286</v>
+        <v>6.837</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.658</v>
+        <v>0.351</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.952</v>
+        <v>123.972</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.704</v>
+        <v>23.615</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.146</v>
+        <v>8.103</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.449</v>
+        <v>16.459</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.873</v>
+        <v>8.894</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.978</v>
+        <v>1.136</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.098</v>
+        <v>14.497</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.728</v>
+        <v>7.044</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.606</v>
+        <v>6.121</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.265</v>
+        <v>7.295</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.406</v>
+        <v>10.112</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.452</v>
+        <v>25.589</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.732</v>
+        <v>4.731</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.185</v>
+        <v>9.784000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45089.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.97</v>
+        <v>7.103</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.41</v>
+        <v>5.342</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.253</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.06</v>
+        <v>15.321</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.1</v>
+        <v>12.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.23</v>
+        <v>5.349</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>66.62</v>
+        <v>22.955</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.73</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.94</v>
+        <v>4.261</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.46</v>
+        <v>5.851</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.27</v>
+        <v>6.288</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.52</v>
+        <v>6.482</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.42</v>
+        <v>1.803</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.29</v>
+        <v>5.749</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.56</v>
+        <v>7.807</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.63</v>
+        <v>4.409</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.663</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.204</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.92</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.36</v>
+        <v>15.558</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.96</v>
+        <v>5.311</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.45</v>
+        <v>10.908</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.04</v>
+        <v>5.836</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.45</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.85</v>
+        <v>11.332</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.1</v>
+        <v>4.595</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.52</v>
+        <v>3.995</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.71</v>
+        <v>4.774</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.27</v>
+        <v>6.598</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>21.454</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.358</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>60.57</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>19.96</v>
+      <c r="S6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_408.xlsx
+++ b/DATA_goal/Junction_Flooding_408.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,34 +448,34 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45089.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45089.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.239</v>
+        <v>5.548</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.696</v>
+        <v>3.897</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.118</v>
+        <v>1.395</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.508</v>
+        <v>12.453</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.91</v>
+        <v>9.066000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.281</v>
+        <v>4.244</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.42</v>
+        <v>18.529</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.398</v>
+        <v>6.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.877</v>
+        <v>2.887</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.918</v>
+        <v>3.758</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>4.958</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.855</v>
+        <v>5.466</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.554</v>
+        <v>1.232</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.031</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.099</v>
+        <v>6.147</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.135</v>
+        <v>4.275</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.165</v>
+        <v>1.246</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.191</v>
+        <v>0.454</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.723</v>
+        <v>61.359</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.492</v>
+        <v>12.739</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.866</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.671</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.377</v>
+        <v>4.214</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.251</v>
+        <v>1.001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.388</v>
+        <v>9.554</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.515</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.225</v>
+        <v>3.504</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.566</v>
+        <v>4.051</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.134</v>
+        <v>5.233</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.523</v>
+        <v>17.255</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.223</v>
+        <v>2.097</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.891</v>
+        <v>5.207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45089.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.925</v>
+        <v>16.651</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.215999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.389</v>
+        <v>1.312</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.56</v>
+        <v>36.543</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.623</v>
+        <v>29.377</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.272</v>
+        <v>13.028</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.931</v>
+        <v>47.932</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.662</v>
+        <v>20.331</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.416</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.968</v>
+        <v>13.015</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.641999999999999</v>
+        <v>14.647</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.971</v>
+        <v>15.662</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.756</v>
+        <v>4.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.776</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.964</v>
+        <v>18.569</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.837</v>
+        <v>11.286</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.351</v>
+        <v>0.658</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>123.972</v>
+        <v>192.952</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.615</v>
+        <v>36.704</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.103</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.459</v>
+        <v>24.449</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.894</v>
+        <v>12.873</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.136</v>
+        <v>1.978</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.497</v>
+        <v>24.098</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.044</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.121</v>
+        <v>9.606</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.295</v>
+        <v>11.265</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.112</v>
+        <v>15.406</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.589</v>
+        <v>43.452</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.731</v>
+        <v>6.732</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.784000000000001</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45089.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.103</v>
+        <v>21.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.342</v>
+        <v>16.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.253</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.321</v>
+        <v>48.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.78</v>
+        <v>39.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.349</v>
+        <v>17.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.955</v>
+        <v>66.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.923999999999999</v>
+        <v>26.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.261</v>
+        <v>11.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.851</v>
+        <v>17.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.288</v>
+        <v>19.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.482</v>
+        <v>20.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.803</v>
+        <v>5.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.749</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.807</v>
+        <v>24.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.409</v>
+        <v>14.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.663</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.204</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.558</v>
+        <v>48.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.311</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.908</v>
+        <v>32.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.836</v>
+        <v>17.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.332</v>
+        <v>32.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.595</v>
+        <v>14.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.995</v>
+        <v>12.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.774</v>
+        <v>14.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.598</v>
+        <v>20.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.454</v>
+        <v>60.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.111</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.358</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.22</v>
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>
